--- a/data/Marco con categorias.xlsx
+++ b/data/Marco con categorias.xlsx
@@ -3980,7 +3980,7 @@
         <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K39" t="s">
         <v>32</v>
@@ -8258,7 +8258,7 @@
         <v>20</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G105" t="s">
         <v>20</v>
@@ -15349,7 +15349,7 @@
         <v>20</v>
       </c>
       <c r="H214" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I214" t="s">
         <v>23</v>
@@ -15854,22 +15854,22 @@
         <v>221</v>
       </c>
       <c r="C222" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D222" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E222" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F222" t="s">
         <v>20</v>
       </c>
       <c r="G222" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H222" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I222" t="s">
         <v>21</v>
@@ -16578,7 +16578,7 @@
         <v>20</v>
       </c>
       <c r="F233" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G233" t="s">
         <v>20</v>
@@ -17497,7 +17497,7 @@
         <v>21</v>
       </c>
       <c r="I247" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J247" t="s">
         <v>20</v>
